--- a/readme/刷题记录.xlsx
+++ b/readme/刷题记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDLH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_remote\Algorithms-and-data-structures\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1593,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
